--- a/biology/Zoologie/Eremias_arguta/Eremias_arguta.xlsx
+++ b/biology/Zoologie/Eremias_arguta/Eremias_arguta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias arguta est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias arguta est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord-est de la Roumanie, en Moldavie, dans le sud de l'Ukraine, dans le Sud de la Russie, en Turquie, en Géorgie, en Arménie, en Azerbaïdjan, dans le nord de l'Iran, au Kazakhstan, en Ouzbékistan, au Tadjikistan, au Kirghizistan, en Mongolie et en Chine au Xinjiang et en Mongolie-Intérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord-est de la Roumanie, en Moldavie, dans le sud de l'Ukraine, dans le Sud de la Russie, en Turquie, en Géorgie, en Arménie, en Azerbaïdjan, dans le nord de l'Iran, au Kazakhstan, en Ouzbékistan, au Tadjikistan, au Kirghizistan, en Mongolie et en Chine au Xinjiang et en Mongolie-Intérieure.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 mai 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 mai 2015) :
 Eremias arguta arguta (Pallas, 1773)
 Eremias arguta darevskii Tsaruk, 1986
 Eremias arguta deserti (Gmelin, 1789)
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bedriaga, 1912 : Amphibien und Reptilien. Wissenschaftliche Resultate der von N.M. Przewalski nach Central-Asien unternommenen Reisen, Band III, Abteilung 1.
 Chernov, 1934 : Über die Unterarten und die Verbreitung von Eremias arguta (Pall.). Comptes rendus de l'Académie des sciences de l'URSS, Leningrad, NS, vol. 3, no 8/9, p. 660.
